--- a/Correlations/highSpearman.xlsx
+++ b/Correlations/highSpearman.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>keyword</t>
   </si>
@@ -31,109 +31,91 @@
     <t>MG_newDeaths</t>
   </si>
   <si>
+    <t>reabertura academias</t>
+  </si>
+  <si>
+    <t>plano de reabertura</t>
+  </si>
+  <si>
+    <t>teste covid</t>
+  </si>
+  <si>
+    <t>tomar ivermectina</t>
+  </si>
+  <si>
+    <t>para que serve ivermectina</t>
+  </si>
+  <si>
+    <t>ivermectina covid como tomar</t>
+  </si>
+  <si>
+    <t>taxa de ocupação de leitos</t>
+  </si>
+  <si>
+    <t>exame covid</t>
+  </si>
+  <si>
+    <t>teste rápido covid</t>
+  </si>
+  <si>
+    <t>igg</t>
+  </si>
+  <si>
+    <t>igm</t>
+  </si>
+  <si>
+    <t>igg igm</t>
+  </si>
+  <si>
     <t>covid igg</t>
   </si>
   <si>
     <t>covid igm igg</t>
   </si>
   <si>
-    <t>exame covid</t>
+    <t>reagente igg</t>
+  </si>
+  <si>
+    <t>teste igg</t>
   </si>
   <si>
     <t>exame igg</t>
   </si>
   <si>
-    <t>igg igm</t>
-  </si>
-  <si>
-    <t>igg</t>
-  </si>
-  <si>
-    <t>igm</t>
-  </si>
-  <si>
-    <t>ivermectina covid como tomar</t>
-  </si>
-  <si>
-    <t>para que que serve ivermectina</t>
-  </si>
-  <si>
-    <t>plano de reabertura</t>
-  </si>
-  <si>
-    <t>reabertura academias</t>
-  </si>
-  <si>
-    <t>reabertura escolas</t>
-  </si>
-  <si>
-    <t>reabertura shopping</t>
-  </si>
-  <si>
-    <t>reagente igg</t>
-  </si>
-  <si>
-    <t>teste covid</t>
-  </si>
-  <si>
-    <t>teste igg</t>
-  </si>
-  <si>
-    <t>teste rápido covid</t>
-  </si>
-  <si>
-    <t>tomar ivermectina</t>
+    <t>exame cotonete</t>
   </si>
   <si>
     <t>covid pcr</t>
   </si>
   <si>
+    <t>pcr exame covid</t>
+  </si>
+  <si>
+    <t>pcr</t>
+  </si>
+  <si>
     <t>estou com covid</t>
   </si>
   <si>
-    <t>exame cotonete</t>
-  </si>
-  <si>
-    <t>pcr exame covid</t>
-  </si>
-  <si>
-    <t>pcr</t>
-  </si>
-  <si>
     <t>peguei covid</t>
   </si>
   <si>
-    <t>brasil coronavirus</t>
-  </si>
-  <si>
-    <t>corona grupo de risco</t>
-  </si>
-  <si>
-    <t>coronavirus no brasil</t>
-  </si>
-  <si>
-    <t>coronavirus oms</t>
+    <t>oms corona</t>
+  </si>
+  <si>
+    <t>álcool 70</t>
   </si>
   <si>
     <t>medicamento corona</t>
   </si>
   <si>
-    <t>medicamento coronavirus</t>
-  </si>
-  <si>
-    <t>oms corona</t>
-  </si>
-  <si>
-    <t>álcool 70</t>
-  </si>
-  <si>
-    <t>álcool gel</t>
-  </si>
-  <si>
     <t>febre</t>
   </si>
   <si>
     <t>tosse</t>
+  </si>
+  <si>
+    <t>sintomas coronavirus</t>
   </si>
 </sst>
 </file>
@@ -491,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +504,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.878742000442236</v>
-      </c>
-      <c r="D2">
-        <v>0.7409837101659369</v>
+        <v>0.7691173180403957</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -536,10 +515,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.871033739341847</v>
-      </c>
-      <c r="D3">
-        <v>0.7362521809313467</v>
+        <v>0.7639982151927521</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -550,13 +526,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.7119791458716518</v>
+        <v>0.7562498365093122</v>
       </c>
       <c r="D4">
-        <v>0.8593585306505142</v>
-      </c>
-      <c r="E4">
-        <v>0.7479291151522643</v>
+        <v>0.7668606748277409</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -567,7 +540,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.8000706780900345</v>
+        <v>0.8702648123004099</v>
+      </c>
+      <c r="D5">
+        <v>0.8607607484265763</v>
+      </c>
+      <c r="E5">
+        <v>0.7272249150107936</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -578,10 +557,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.8730348981863357</v>
-      </c>
-      <c r="D6">
-        <v>0.7240431542722598</v>
+        <v>0.7451962438415595</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -592,10 +568,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.8818303800175032</v>
+        <v>0.8290414545709252</v>
       </c>
       <c r="D7">
-        <v>0.74917170674512</v>
+        <v>0.7565183204134867</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -606,10 +582,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.9003139279461155</v>
-      </c>
-      <c r="D8">
-        <v>0.7456899410866701</v>
+        <v>0.756788141111302</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -620,10 +593,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0.845849243632589</v>
+        <v>0.7396700336514188</v>
       </c>
       <c r="D9">
-        <v>0.7957775428550856</v>
+        <v>0.859912654488139</v>
+      </c>
+      <c r="E9">
+        <v>0.7415659597977297</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -634,7 +610,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.7173086203257535</v>
+        <v>0.8035966868886083</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -645,7 +621,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.7424861598414459</v>
+        <v>0.8953648019616406</v>
+      </c>
+      <c r="D11">
+        <v>0.727619455009467</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -656,7 +635,10 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0.7559658816952974</v>
+        <v>0.8998801583244098</v>
+      </c>
+      <c r="D12">
+        <v>0.747338784530443</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -667,7 +649,10 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0.7261954708104643</v>
+        <v>0.8975390163701967</v>
+      </c>
+      <c r="D13">
+        <v>0.7408870676037036</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -678,7 +663,10 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.7137743658147547</v>
+        <v>0.8848760666645157</v>
+      </c>
+      <c r="D14">
+        <v>0.7177319540733444</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,16 +677,10 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0.7953752379768579</v>
+        <v>0.8758110798130431</v>
       </c>
       <c r="D15">
-        <v>0.83875518007481</v>
-      </c>
-      <c r="E15">
-        <v>0.7762583001720091</v>
-      </c>
-      <c r="F15">
-        <v>0.7291521153830216</v>
+        <v>0.7326189291403048</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +691,13 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0.7537458364548152</v>
+        <v>0.803427302065516</v>
       </c>
       <c r="D16">
-        <v>0.7736614491140981</v>
+        <v>0.8494272296478298</v>
+      </c>
+      <c r="E16">
+        <v>0.7643492681177202</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -723,7 +708,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0.8478460317990307</v>
+        <v>0.8452074725012551</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -734,7 +719,10 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0.7749648084439593</v>
+        <v>0.8141775400858036</v>
+      </c>
+      <c r="D18">
+        <v>0.709404616377205</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -744,14 +732,11 @@
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19">
-        <v>0.8660719810898639</v>
-      </c>
       <c r="D19">
-        <v>0.8409102192791336</v>
+        <v>0.839232963871791</v>
       </c>
       <c r="E19">
-        <v>0.7120690989877491</v>
+        <v>0.8207172462476451</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -762,10 +747,10 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>0.8863588848128726</v>
+        <v>0.8384528624562824</v>
       </c>
       <c r="E20">
-        <v>0.8075716857450457</v>
+        <v>0.7623785620822997</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -776,7 +761,10 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>0.7430022762093478</v>
+        <v>0.8823697539716698</v>
+      </c>
+      <c r="E21">
+        <v>0.8137101159815577</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -787,13 +775,10 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>0.8651108413496054</v>
+        <v>0.885856584781198</v>
       </c>
       <c r="E22">
-        <v>0.8903854857263523</v>
-      </c>
-      <c r="F22">
-        <v>0.7633297254982299</v>
+        <v>0.8190283439011369</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -804,10 +789,7 @@
         <v>26</v>
       </c>
       <c r="D23">
-        <v>0.8793006990879781</v>
-      </c>
-      <c r="E23">
-        <v>0.8060070405407536</v>
+        <v>0.7641916777717518</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -818,10 +800,10 @@
         <v>27</v>
       </c>
       <c r="D24">
-        <v>0.907559021844549</v>
+        <v>0.7456720406803705</v>
       </c>
       <c r="E24">
-        <v>0.8444100888233996</v>
+        <v>0.7277857601308098</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -831,11 +813,11 @@
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="D25">
-        <v>0.8197463251411996</v>
-      </c>
       <c r="E25">
-        <v>0.7524949677173879</v>
+        <v>-0.7019618280649724</v>
+      </c>
+      <c r="F25">
+        <v>-0.7113902728893491</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -846,7 +828,10 @@
         <v>29</v>
       </c>
       <c r="E26">
-        <v>-0.7121454871406987</v>
+        <v>-0.7686743728362454</v>
+      </c>
+      <c r="F26">
+        <v>-0.7548840266202301</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -857,10 +842,10 @@
         <v>30</v>
       </c>
       <c r="E27">
-        <v>-0.7472459455723246</v>
+        <v>-0.7109296594117195</v>
       </c>
       <c r="F27">
-        <v>-0.7569340707161413</v>
+        <v>-0.7520102697070764</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -870,8 +855,8 @@
       <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="E28">
-        <v>-0.7119569106005142</v>
+      <c r="F28">
+        <v>-0.7810801270737733</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -881,8 +866,8 @@
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="E29">
-        <v>-0.7144535483362131</v>
+      <c r="F29">
+        <v>-0.735308129803194</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -892,83 +877,8 @@
       <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="E30">
-        <v>-0.720708156800972</v>
-      </c>
       <c r="F30">
-        <v>-0.7437737509543705</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31">
-        <v>-0.7031682062064951</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32">
-        <v>-0.7322919857358914</v>
-      </c>
-      <c r="F32">
-        <v>-0.7398555439957212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33">
-        <v>-0.7568797551641043</v>
-      </c>
-      <c r="F33">
-        <v>-0.759501318913578</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34">
-        <v>-0.7097269059286252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35">
-        <v>-0.7951054974980791</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36">
-        <v>-0.7395607830381649</v>
+        <v>-0.7009410167935742</v>
       </c>
     </row>
   </sheetData>

--- a/Correlations/highSpearman.xlsx
+++ b/Correlations/highSpearman.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>keyword</t>
   </si>
@@ -31,9 +31,6 @@
     <t>MG_newDeaths</t>
   </si>
   <si>
-    <t>reabertura academias</t>
-  </si>
-  <si>
     <t>plano de reabertura</t>
   </si>
   <si>
@@ -94,12 +91,12 @@
     <t>pcr</t>
   </si>
   <si>
-    <t>estou com covid</t>
-  </si>
-  <si>
     <t>peguei covid</t>
   </si>
   <si>
+    <t>ministerio da saude</t>
+  </si>
+  <si>
     <t>oms corona</t>
   </si>
   <si>
@@ -110,12 +107,6 @@
   </si>
   <si>
     <t>febre</t>
-  </si>
-  <si>
-    <t>tosse</t>
-  </si>
-  <si>
-    <t>sintomas coronavirus</t>
   </si>
 </sst>
 </file>
@@ -473,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +495,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.7691173180403957</v>
+        <v>0.7772103340851021</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -515,7 +506,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.7639982151927521</v>
+        <v>0.756619577632469</v>
+      </c>
+      <c r="D3">
+        <v>0.7648324559626782</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -526,10 +520,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0.7562498365093122</v>
+        <v>0.8825677238107346</v>
       </c>
       <c r="D4">
-        <v>0.7668606748277409</v>
+        <v>0.8116473973097126</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -540,13 +534,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.8702648123004099</v>
-      </c>
-      <c r="D5">
-        <v>0.8607607484265763</v>
-      </c>
-      <c r="E5">
-        <v>0.7272249150107936</v>
+        <v>0.702236229183498</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -557,7 +545,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0.7451962438415595</v>
+        <v>0.852582881506196</v>
+      </c>
+      <c r="D6">
+        <v>0.8169993534885507</v>
+      </c>
+      <c r="E6">
+        <v>0.705689072121964</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -568,10 +562,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.8290414545709252</v>
-      </c>
-      <c r="D7">
-        <v>0.7565183204134867</v>
+        <v>0.7381204105460452</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -582,7 +573,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.756788141111302</v>
+        <v>0.7172020246132192</v>
+      </c>
+      <c r="D8">
+        <v>0.8523284992747804</v>
+      </c>
+      <c r="E8">
+        <v>0.7358105431739125</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -593,13 +590,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0.7396700336514188</v>
-      </c>
-      <c r="D9">
-        <v>0.859912654488139</v>
-      </c>
-      <c r="E9">
-        <v>0.7415659597977297</v>
+        <v>0.7945138354370683</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -610,7 +601,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.8035966868886083</v>
+        <v>0.8870319992866675</v>
+      </c>
+      <c r="D10">
+        <v>0.7313686288783038</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -621,10 +615,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.8953648019616406</v>
+        <v>0.9016289961745234</v>
       </c>
       <c r="D11">
-        <v>0.727619455009467</v>
+        <v>0.7502644924220603</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -635,10 +629,10 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>0.8998801583244098</v>
+        <v>0.896707345731399</v>
       </c>
       <c r="D12">
-        <v>0.747338784530443</v>
+        <v>0.7327459038212834</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +643,10 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0.8975390163701967</v>
+        <v>0.8666713865175621</v>
       </c>
       <c r="D13">
-        <v>0.7408870676037036</v>
+        <v>0.7314769576726607</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -663,10 +657,10 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>0.8848760666645157</v>
+        <v>0.8897116412274335</v>
       </c>
       <c r="D14">
-        <v>0.7177319540733444</v>
+        <v>0.7441303874656916</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -677,10 +671,13 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>0.8758110798130431</v>
+        <v>0.8152718225107853</v>
       </c>
       <c r="D15">
-        <v>0.7326189291403048</v>
+        <v>0.8622489079890435</v>
+      </c>
+      <c r="E15">
+        <v>0.7665762308990618</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -691,13 +688,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>0.803427302065516</v>
-      </c>
-      <c r="D16">
-        <v>0.8494272296478298</v>
-      </c>
-      <c r="E16">
-        <v>0.7643492681177202</v>
+        <v>0.8440464652349828</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -708,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0.8452074725012551</v>
+        <v>0.7987306779903799</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -718,11 +709,11 @@
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18">
-        <v>0.8141775400858036</v>
-      </c>
       <c r="D18">
-        <v>0.709404616377205</v>
+        <v>0.8054841114980128</v>
+      </c>
+      <c r="E18">
+        <v>0.8144297376532246</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -733,10 +724,10 @@
         <v>22</v>
       </c>
       <c r="D19">
-        <v>0.839232963871791</v>
+        <v>0.8741672056407989</v>
       </c>
       <c r="E19">
-        <v>0.8207172462476451</v>
+        <v>0.7997321630793394</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -747,10 +738,10 @@
         <v>23</v>
       </c>
       <c r="D20">
-        <v>0.8384528624562824</v>
+        <v>0.8959731873196181</v>
       </c>
       <c r="E20">
-        <v>0.7623785620822997</v>
+        <v>0.8160950151934149</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -761,10 +752,10 @@
         <v>24</v>
       </c>
       <c r="D21">
-        <v>0.8823697539716698</v>
+        <v>0.9087192691048621</v>
       </c>
       <c r="E21">
-        <v>0.8137101159815577</v>
+        <v>0.8365419848875939</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -775,10 +766,10 @@
         <v>25</v>
       </c>
       <c r="D22">
-        <v>0.885856584781198</v>
+        <v>0.7747793229022527</v>
       </c>
       <c r="E22">
-        <v>0.8190283439011369</v>
+        <v>0.7065637967777234</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -788,8 +779,8 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="D23">
-        <v>0.7641916777717518</v>
+      <c r="E23">
+        <v>-0.7009405693960961</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -799,11 +790,11 @@
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="D24">
-        <v>0.7456720406803705</v>
-      </c>
       <c r="E24">
-        <v>0.7277857601308098</v>
+        <v>-0.7543839727364603</v>
+      </c>
+      <c r="F24">
+        <v>-0.7509493067018708</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -814,10 +805,10 @@
         <v>28</v>
       </c>
       <c r="E25">
-        <v>-0.7019618280649724</v>
+        <v>-0.7319541546649584</v>
       </c>
       <c r="F25">
-        <v>-0.7113902728893491</v>
+        <v>-0.7075801026791214</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -828,10 +819,10 @@
         <v>29</v>
       </c>
       <c r="E26">
-        <v>-0.7686743728362454</v>
+        <v>-0.7735707042310486</v>
       </c>
       <c r="F26">
-        <v>-0.7548840266202301</v>
+        <v>-0.8172085809819937</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -841,44 +832,8 @@
       <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="E27">
-        <v>-0.7109296594117195</v>
-      </c>
       <c r="F27">
-        <v>-0.7520102697070764</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28">
-        <v>-0.7810801270737733</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29">
-        <v>-0.735308129803194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30">
-        <v>-0.7009410167935742</v>
+        <v>-0.7753221656541759</v>
       </c>
     </row>
   </sheetData>
